--- a/data/trans_bre/IP18A06-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP18A06-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,63</t>
+          <t>0,0; 4,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 0,65</t>
+          <t>-9,74; 0,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 4,69</t>
+          <t>-1,83; 4,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,65; 0,0</t>
+          <t>-40,61; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 86,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,26</t>
+          <t>-1,52; 1,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 0,91</t>
+          <t>-1,6; 0,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,55</t>
+          <t>-1,22; 1,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 5,04</t>
+          <t>-4,21; 5,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-67,46; 143,57</t>
+          <t>-68,69; 150,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-74,05; 123,58</t>
+          <t>-69,43; 122,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-62,19; 237,11</t>
+          <t>-56,05; 225,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 531,58</t>
+          <t>-100,0; 506,39</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,52</t>
+          <t>-2,45; 3,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 0,32</t>
+          <t>-4,46; 0,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 3,94</t>
+          <t>-2,8; 3,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 15,5</t>
+          <t>-13,61; 16,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,03; 360,63</t>
+          <t>-63,7; 519,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 219,58</t>
+          <t>-100,0; 189,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,97; 234,55</t>
+          <t>-62,21; 204,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-75,55; 369,96</t>
+          <t>-72,36; 383,72</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,49</t>
+          <t>-1,06; 1,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,03</t>
+          <t>-2,28; 0,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,43</t>
+          <t>-1,06; 1,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 5,91</t>
+          <t>-5,19; 5,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-46,55; 145,41</t>
+          <t>-47,77; 145,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-74,45; 6,19</t>
+          <t>-75,23; 18,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-36,98; 116,76</t>
+          <t>-45,2; 119,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-61,66; 202,85</t>
+          <t>-64,71; 182,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A06-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP18A06-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-9,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,6; 0,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 3,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,6; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,31</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-9,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-68,59%</t>
+          <t>-22,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-0,71%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>-1,72; 1,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 0,05</t>
+          <t>-1,72; 0,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 4,11</t>
+          <t>-1,12; 1,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,61; 0,0</t>
+          <t>-4,05; 5,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,81; 140,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 86,72</t>
+          <t>-74,38; 103,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,7; 227,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 431,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,01%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-22,27%</t>
+          <t>-65,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,21%</t>
+          <t>12,9%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,33</t>
+          <t>-2,49; 3,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,98</t>
+          <t>-4,35; 0,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 1,59</t>
+          <t>-2,78; 3,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 5,41</t>
+          <t>-12,86; 16,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-68,69; 150,17</t>
+          <t>-68,64; 407,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,43; 122,35</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-56,05; 225,65</t>
+          <t>-64,82; 208,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 506,39</t>
+          <t>-71,71; 380,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-65,69%</t>
+          <t>-45,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>1,84%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,69</t>
+          <t>-0,98; 1,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 0,5</t>
+          <t>-2,26; 0,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,41</t>
+          <t>-1,03; 1,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 16,23</t>
+          <t>-4,96; 5,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,7; 519,39</t>
+          <t>-46,69; 134,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 189,62</t>
+          <t>-76,65; 19,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,21; 204,91</t>
+          <t>-41,68; 153,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,36; 383,72</t>
+          <t>-68,19; 168,49</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>13,06%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-45,84%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>14,13%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 1,37</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,28; 0,18</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 1,5</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-5,19; 5,46</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-47,77; 145,76</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-75,23; 18,17</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-45,2; 119,33</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-64,71; 182,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
